--- a/Original Files/CMH Invoice-10182990-Smith, Sherri A-Nursing Residency ORIG.xlsx
+++ b/Original Files/CMH Invoice-10182990-Smith, Sherri A-Nursing Residency ORIG.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7447A135-F62B-4D0E-A677-4D715B46F136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A28B91-868B-49B9-8939-0EDF2BF43C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{87C61EBC-F614-46A9-BF75-329D0C5E5C6F}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF6CB03-0F91-49BB-B9FB-85E9FAAE7FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -179,7 +179,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -558,20 +558,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:colOff>1684020</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DB092C-5E30-5F24-1A77-98BA129E21E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AF292E-A3DB-1149-6D7F-B41CC2768598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,39 +617,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -701,7 +701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -812,13 +812,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -827,6 +820,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -891,18 +891,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2AF4F8-2961-479A-AEB5-5358490B7BBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7910927-ECD5-427D-B753-399934200AB3}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -910,15 +930,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
